--- a/data/trans_bre/P16A13-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,91</t>
+          <t>-3,42; 1,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,5</t>
+          <t>-2,05; 5,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,86</t>
+          <t>-4,15; 1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; -0,33</t>
+          <t>-5,45; -0,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,55; 59,31</t>
+          <t>-80,15; 85,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 207,69</t>
+          <t>-41,24; 182,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-74,74; 68,01</t>
+          <t>-72,23; 71,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-60,75; -5,35</t>
+          <t>-61,5; -7,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,22</t>
+          <t>-1,49; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,61</t>
+          <t>-1,57; 4,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,16</t>
+          <t>-1,94; 4,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,69</t>
+          <t>-3,56; 1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 277,99</t>
+          <t>-49,49; 267,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 249,13</t>
+          <t>-38,3; 263,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 232,25</t>
+          <t>-44,71; 201,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 42,44</t>
+          <t>-50,09; 39,2</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 7,54</t>
+          <t>-0,02; 7,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,13</t>
+          <t>-1,52; 4,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 8,89</t>
+          <t>-0,68; 8,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 13,54</t>
+          <t>1,74; 12,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 491,82</t>
+          <t>-13,58; 468,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 206,5</t>
+          <t>-43,02; 212,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 448,65</t>
+          <t>-26,23; 430,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 658,08</t>
+          <t>15,79; 513,8</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,52</t>
+          <t>-1,73; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,19</t>
+          <t>-2,92; 1,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,3</t>
+          <t>0,03; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,62</t>
+          <t>-4,22; 1,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 62,79</t>
+          <t>-45,42; 57,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 26,06</t>
+          <t>-47,19; 28,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 207,74</t>
+          <t>0,11; 210,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 26,85</t>
+          <t>-56,3; 24,86</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,26</t>
+          <t>-3,13; 1,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,29</t>
+          <t>0,31; 5,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,61</t>
+          <t>-2,71; 1,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 6,79</t>
+          <t>-0,97; 6,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 140,04</t>
+          <t>-59,1; 103,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 197,5</t>
+          <t>2,17; 194,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 54,07</t>
+          <t>-50,96; 53,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 119,07</t>
+          <t>-13,14; 114,27</t>
         </is>
       </c>
     </row>
@@ -1168,32 +1168,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,25</t>
+          <t>2,1; 5,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,42</t>
+          <t>0,36; 5,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,84</t>
+          <t>2,69; 5,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,54</t>
+          <t>6,42; 10,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,86; —</t>
+          <t>84,84; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 727,3</t>
+          <t>1,91; 805,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>189,46; 2287,14</t>
+          <t>179,71; 1916,6</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,84</t>
+          <t>0,08; 1,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,25</t>
+          <t>0,17; 2,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,0</t>
+          <t>0,34; 2,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,53</t>
+          <t>0,37; 3,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 81,43</t>
+          <t>1,07; 77,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 63,03</t>
+          <t>3,02; 62,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 80,82</t>
+          <t>9,39; 86,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 70,73</t>
+          <t>7,34; 74,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A13-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
